--- a/Evaluation.xlsx
+++ b/Evaluation.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Sem VII\Final Year Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Sem VII\Final Year Project\FYP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97CB4AE6-5212-4624-88A3-F87D7BA0454B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABE746F7-5E6A-4871-9F78-B9B8971E33D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5724" yWindow="2556" windowWidth="16584" windowHeight="9420" xr2:uid="{27D1B984-DA68-464F-8F8A-D4BB6C213CE9}"/>
+    <workbookView xWindow="11304" yWindow="5124" windowWidth="16584" windowHeight="9420" xr2:uid="{27D1B984-DA68-464F-8F8A-D4BB6C213CE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="11">
   <si>
     <t>Word Frequency</t>
   </si>
@@ -51,6 +51,18 @@
   </si>
   <si>
     <t>chandrayaan</t>
+  </si>
+  <si>
+    <t>TextRank</t>
+  </si>
+  <si>
+    <t>iphone</t>
+  </si>
+  <si>
+    <t>turkey</t>
+  </si>
+  <si>
+    <t>microsoft</t>
   </si>
 </sst>
 </file>
@@ -168,7 +180,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -187,6 +199,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -501,10 +517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{325B10D9-10B0-4F88-913C-29C91C62F312}">
-  <dimension ref="A1:F60"/>
+  <dimension ref="A1:F77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B40" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28:F28"/>
+    <sheetView tabSelected="1" topLeftCell="B55" workbookViewId="0">
+      <selection activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -815,6 +831,9 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
       <c r="D25" s="3">
         <v>8.3999999999999995E-3</v>
       </c>
@@ -826,6 +845,9 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B26" t="s">
+        <v>10</v>
+      </c>
       <c r="D26" s="5">
         <v>1.4500000000000001E-2</v>
       </c>
@@ -837,6 +859,9 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B27" t="s">
+        <v>9</v>
+      </c>
       <c r="D27" s="5">
         <v>0.2109</v>
       </c>
@@ -1085,7 +1110,7 @@
         <v>0.40450000000000003</v>
       </c>
     </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D49">
         <v>0.3291</v>
       </c>
@@ -1096,7 +1121,7 @@
         <v>0.42280000000000001</v>
       </c>
     </row>
-    <row r="50" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D50" s="1">
         <f>AVERAGE(D47:D49)</f>
         <v>0.35786666666666661</v>
@@ -1110,7 +1135,7 @@
         <v>0.44693333333333335</v>
       </c>
     </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
         <v>6</v>
       </c>
@@ -1124,7 +1149,7 @@
         <v>0.55320000000000003</v>
       </c>
     </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D52">
         <v>0.1515</v>
       </c>
@@ -1135,7 +1160,7 @@
         <v>0.16259999999999999</v>
       </c>
     </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D53">
         <v>0.20580000000000001</v>
       </c>
@@ -1146,7 +1171,7 @@
         <v>0.27450000000000002</v>
       </c>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D54">
         <v>0.25</v>
       </c>
@@ -1157,7 +1182,7 @@
         <v>0.23730000000000001</v>
       </c>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D55">
         <v>0.25490000000000002</v>
       </c>
@@ -1168,7 +1193,7 @@
         <v>0.1978</v>
       </c>
     </row>
-    <row r="56" spans="2:6" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D56" s="1">
         <f>AVERAGE(D51:D55)</f>
         <v>0.25122</v>
@@ -1182,7 +1207,10 @@
         <v>0.28508</v>
       </c>
     </row>
-    <row r="57" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B57" t="s">
+        <v>8</v>
+      </c>
       <c r="D57" s="3">
         <v>0.1056</v>
       </c>
@@ -1193,7 +1221,10 @@
         <v>0.1109</v>
       </c>
     </row>
-    <row r="58" spans="2:6" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B58" t="s">
+        <v>10</v>
+      </c>
       <c r="D58" s="5">
         <v>0.16830000000000001</v>
       </c>
@@ -1204,7 +1235,10 @@
         <v>0.21840000000000001</v>
       </c>
     </row>
-    <row r="59" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B59" t="s">
+        <v>9</v>
+      </c>
       <c r="D59" s="5">
         <v>0.31040000000000001</v>
       </c>
@@ -1215,7 +1249,7 @@
         <v>0.33800000000000002</v>
       </c>
     </row>
-    <row r="60" spans="2:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D60" s="2">
         <f>AVERAGE(D36,D42,D46,D50,D56,D57:D59)</f>
         <v>0.23796024999999998</v>
@@ -1227,6 +1261,209 @@
       <c r="F60" s="2">
         <f t="shared" si="5"/>
         <v>0.27313999999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>7</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1</v>
+      </c>
+      <c r="D62" s="8">
+        <v>0.26519999999999999</v>
+      </c>
+      <c r="E62" s="9">
+        <v>0.2581</v>
+      </c>
+      <c r="F62" s="9">
+        <v>0.2616</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D63">
+        <v>8.6400000000000005E-2</v>
+      </c>
+      <c r="E63">
+        <v>0.36359999999999998</v>
+      </c>
+      <c r="F63">
+        <v>0.1396</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D64" s="1">
+        <f>AVERAGE(D62:D63)</f>
+        <v>0.17580000000000001</v>
+      </c>
+      <c r="E64" s="1">
+        <f t="shared" ref="E64:F64" si="6">AVERAGE(E62:E63)</f>
+        <v>0.31084999999999996</v>
+      </c>
+      <c r="F64" s="1">
+        <f t="shared" si="6"/>
+        <v>0.2006</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B65" t="s">
+        <v>2</v>
+      </c>
+      <c r="D65">
+        <v>1.8200000000000001E-2</v>
+      </c>
+      <c r="E65">
+        <v>3.4500000000000003E-2</v>
+      </c>
+      <c r="F65">
+        <v>2.3800000000000002E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D66">
+        <v>0.1298</v>
+      </c>
+      <c r="E66">
+        <v>0.35070000000000001</v>
+      </c>
+      <c r="F66">
+        <v>0.1895</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D67">
+        <v>0.1923</v>
+      </c>
+      <c r="E67">
+        <v>0.625</v>
+      </c>
+      <c r="F67">
+        <v>0.29411700000000002</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D68">
+        <v>0.40539999999999998</v>
+      </c>
+      <c r="E68">
+        <v>4.050405E-2</v>
+      </c>
+      <c r="F68">
+        <v>4.054E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D69" s="1">
+        <f>AVERAGE(D65:D68)</f>
+        <v>0.18642500000000001</v>
+      </c>
+      <c r="E69" s="1">
+        <f t="shared" ref="E69:F69" si="7">AVERAGE(E65:E68)</f>
+        <v>0.2626760125</v>
+      </c>
+      <c r="F69" s="1">
+        <f t="shared" si="7"/>
+        <v>0.13698925000000001</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B70" t="s">
+        <v>4</v>
+      </c>
+      <c r="D70">
+        <v>0.29729</v>
+      </c>
+      <c r="E70">
+        <v>0.49253000000000002</v>
+      </c>
+      <c r="F70">
+        <v>0.37078</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D71">
+        <v>0.30908999999999998</v>
+      </c>
+      <c r="E71">
+        <v>0.31774999999999998</v>
+      </c>
+      <c r="F71">
+        <v>0.31336399999999998</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D72" s="1">
+        <f>AVERAGE(D70:D71)</f>
+        <v>0.30318999999999996</v>
+      </c>
+      <c r="E72" s="1">
+        <f t="shared" ref="E72:F72" si="8">AVERAGE(E70:E71)</f>
+        <v>0.40514</v>
+      </c>
+      <c r="F72" s="1">
+        <f t="shared" si="8"/>
+        <v>0.34207199999999999</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B73" t="s">
+        <v>5</v>
+      </c>
+      <c r="D73">
+        <v>0.21679899999999999</v>
+      </c>
+      <c r="E73">
+        <v>0.33567000000000002</v>
+      </c>
+      <c r="F73">
+        <v>0.26344800000000002</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D74">
+        <v>0.13216900000000001</v>
+      </c>
+      <c r="E74">
+        <v>0.28494000000000003</v>
+      </c>
+      <c r="F74">
+        <v>0.18057899999999999</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D75">
+        <v>0.33082699999999998</v>
+      </c>
+      <c r="E75">
+        <v>0.90720999999999996</v>
+      </c>
+      <c r="F75">
+        <v>0.484848</v>
+      </c>
+    </row>
+    <row r="76" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D76">
+        <v>0.22792000000000001</v>
+      </c>
+      <c r="E76">
+        <v>0.21276</v>
+      </c>
+      <c r="F76">
+        <v>0.22008249999999999</v>
+      </c>
+    </row>
+    <row r="77" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D77" s="1">
+        <f>AVERAGE(D73:D76)</f>
+        <v>0.22692874999999998</v>
+      </c>
+      <c r="E77" s="1">
+        <f t="shared" ref="E77:F77" si="9">AVERAGE(E73:E76)</f>
+        <v>0.43514500000000006</v>
+      </c>
+      <c r="F77" s="1">
+        <f t="shared" si="9"/>
+        <v>0.28723937500000002</v>
       </c>
     </row>
   </sheetData>

--- a/Evaluation.xlsx
+++ b/Evaluation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Sem VII\Final Year Project\FYP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABE746F7-5E6A-4871-9F78-B9B8971E33D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32112CC9-0BB4-4AC5-8578-A6F2D710175C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11304" yWindow="5124" windowWidth="16584" windowHeight="9420" xr2:uid="{27D1B984-DA68-464F-8F8A-D4BB6C213CE9}"/>
+    <workbookView xWindow="10824" yWindow="3456" windowWidth="16584" windowHeight="9420" xr2:uid="{27D1B984-DA68-464F-8F8A-D4BB6C213CE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="11">
   <si>
     <t>Word Frequency</t>
   </si>
@@ -69,7 +69,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,6 +106,38 @@
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF434343"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF434343"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FFA3A8AE"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -180,7 +212,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -203,6 +235,27 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -517,10 +570,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{325B10D9-10B0-4F88-913C-29C91C62F312}">
-  <dimension ref="A1:F77"/>
+  <dimension ref="A1:F128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B55" workbookViewId="0">
-      <selection activeCell="D67" sqref="D67"/>
+    <sheetView tabSelected="1" topLeftCell="B88" workbookViewId="0">
+      <selection activeCell="D115" sqref="D115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1466,6 +1519,523 @@
         <v>0.28723937500000002</v>
       </c>
     </row>
+    <row r="78" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B78" t="s">
+        <v>6</v>
+      </c>
+      <c r="D78">
+        <v>0.272727</v>
+      </c>
+      <c r="E78">
+        <v>0.171428</v>
+      </c>
+      <c r="F78">
+        <v>0.21052599999999999</v>
+      </c>
+    </row>
+    <row r="79" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D79">
+        <v>3.9215E-2</v>
+      </c>
+      <c r="E79">
+        <v>2.8368000000000001E-2</v>
+      </c>
+      <c r="F79">
+        <v>0.32921810000000001</v>
+      </c>
+    </row>
+    <row r="80" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D80" s="1">
+        <f>AVERAGE(D78:D79)</f>
+        <v>0.155971</v>
+      </c>
+      <c r="E80" s="1">
+        <f t="shared" ref="E80:F80" si="10">AVERAGE(E78:E79)</f>
+        <v>9.9898000000000001E-2</v>
+      </c>
+      <c r="F80" s="1">
+        <f t="shared" si="10"/>
+        <v>0.26987205000000003</v>
+      </c>
+    </row>
+    <row r="81" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B81" t="s">
+        <v>8</v>
+      </c>
+      <c r="D81" s="12">
+        <v>0.17791000000000001</v>
+      </c>
+      <c r="E81" s="13">
+        <v>0.21560000000000001</v>
+      </c>
+      <c r="F81" s="13">
+        <v>0.19495000000000001</v>
+      </c>
+    </row>
+    <row r="82" spans="2:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="D82" s="14">
+        <v>0.235294</v>
+      </c>
+      <c r="E82" s="14">
+        <v>0.25225219999999998</v>
+      </c>
+      <c r="F82" s="14">
+        <v>0.243478</v>
+      </c>
+    </row>
+    <row r="83" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D83" s="1">
+        <f>AVERAGE(D81:D82)</f>
+        <v>0.20660200000000001</v>
+      </c>
+      <c r="E83" s="1">
+        <f t="shared" ref="E83:F83" si="11">AVERAGE(E81:E82)</f>
+        <v>0.2339261</v>
+      </c>
+      <c r="F83" s="1">
+        <f t="shared" si="11"/>
+        <v>0.21921400000000002</v>
+      </c>
+    </row>
+    <row r="84" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B84" t="s">
+        <v>9</v>
+      </c>
+      <c r="D84" s="14">
+        <v>0.41860399999999998</v>
+      </c>
+      <c r="E84" s="14">
+        <v>0.1666666</v>
+      </c>
+      <c r="F84" s="14">
+        <v>0.23841000000000001</v>
+      </c>
+    </row>
+    <row r="85" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D85" s="14">
+        <v>0.38370110000000002</v>
+      </c>
+      <c r="E85" s="14">
+        <v>0.29465439999999998</v>
+      </c>
+      <c r="F85" s="14">
+        <v>0.33333333329999998</v>
+      </c>
+    </row>
+    <row r="86" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D86" s="14">
+        <v>0.17142857142849999</v>
+      </c>
+      <c r="E86" s="14">
+        <v>0.28301886792449998</v>
+      </c>
+      <c r="F86" s="14">
+        <v>0.21352313167</v>
+      </c>
+    </row>
+    <row r="87" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D87" s="1">
+        <f>AVERAGE(D84:D86)</f>
+        <v>0.32457789047616664</v>
+      </c>
+      <c r="E87" s="1">
+        <f t="shared" ref="E87:F87" si="12">AVERAGE(E84:E86)</f>
+        <v>0.24811328930816665</v>
+      </c>
+      <c r="F87" s="1">
+        <f t="shared" si="12"/>
+        <v>0.26175548832333334</v>
+      </c>
+    </row>
+    <row r="88" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B88" t="s">
+        <v>10</v>
+      </c>
+      <c r="D88" s="1">
+        <v>0.21679899999999999</v>
+      </c>
+      <c r="E88" s="1">
+        <v>0.33567000000000002</v>
+      </c>
+      <c r="F88" s="1">
+        <v>0.26344800000000002</v>
+      </c>
+    </row>
+    <row r="89" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="90" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B90" s="3">
+        <v>4.1700000000000001E-2</v>
+      </c>
+      <c r="C90" s="4">
+        <v>0.2954</v>
+      </c>
+      <c r="D90" s="4">
+        <v>7.1199999999999999E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="2:6" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B91" s="5">
+        <v>0.22459999999999999</v>
+      </c>
+      <c r="C91" s="6">
+        <v>0.26129999999999998</v>
+      </c>
+      <c r="D91" s="6">
+        <v>0.20039999999999999</v>
+      </c>
+    </row>
+    <row r="92" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B92" s="5">
+        <v>0.15790000000000001</v>
+      </c>
+      <c r="C92" s="6">
+        <v>0.49919999999999998</v>
+      </c>
+      <c r="D92" s="6">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="93" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B93" s="5">
+        <v>0.188</v>
+      </c>
+      <c r="C93" s="6">
+        <v>0.46700000000000003</v>
+      </c>
+      <c r="D93" s="6">
+        <v>0.18379999999999999</v>
+      </c>
+    </row>
+    <row r="94" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B94" s="5">
+        <v>2.63E-2</v>
+      </c>
+      <c r="C94" s="6">
+        <v>5.7099999999999998E-2</v>
+      </c>
+      <c r="D94" s="6">
+        <v>0.1031</v>
+      </c>
+    </row>
+    <row r="95" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B95" s="5">
+        <v>8.3999999999999995E-3</v>
+      </c>
+      <c r="C95" s="6">
+        <v>4.3400000000000001E-2</v>
+      </c>
+      <c r="D95" s="6">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B96" s="5">
+        <v>1.4500000000000001E-2</v>
+      </c>
+      <c r="C96" s="6">
+        <v>9.2799999999999994E-2</v>
+      </c>
+      <c r="D96" s="6">
+        <v>2.4199999999999999E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="2:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B97" s="5">
+        <v>0.2109</v>
+      </c>
+      <c r="C97" s="6">
+        <v>0.51490000000000002</v>
+      </c>
+      <c r="D97" s="6">
+        <v>0.18940000000000001</v>
+      </c>
+    </row>
+    <row r="98" spans="2:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B98" s="5">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="C98" s="6">
+        <v>2.12E-2</v>
+      </c>
+      <c r="D98" s="10">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="2:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B99" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="C99" s="7">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="D99" s="11">
+        <v>2.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B101">
+        <f>AVERAGE(B90:B99)</f>
+        <v>0.11262999999999998</v>
+      </c>
+      <c r="C101">
+        <f t="shared" ref="C101:D101" si="13">AVERAGE(C90:C99)</f>
+        <v>0.22842999999999999</v>
+      </c>
+      <c r="D101">
+        <f>AVERAGE(D90:D99)</f>
+        <v>0.10880999999999999</v>
+      </c>
+    </row>
+    <row r="103" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="104" spans="2:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B104" s="3">
+        <v>0.1158</v>
+      </c>
+      <c r="C104" s="4">
+        <v>0.32419999999999999</v>
+      </c>
+      <c r="D104" s="4">
+        <v>0.16259999999999999</v>
+      </c>
+    </row>
+    <row r="105" spans="2:4" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B105" s="5">
+        <v>0.41310000000000002</v>
+      </c>
+      <c r="C105" s="6">
+        <v>0.39829999999999999</v>
+      </c>
+      <c r="D105" s="6">
+        <v>0.36849999999999999</v>
+      </c>
+    </row>
+    <row r="106" spans="2:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B106" s="5">
+        <v>0.18129999999999999</v>
+      </c>
+      <c r="C106" s="6">
+        <v>0.47710000000000002</v>
+      </c>
+      <c r="D106" s="6">
+        <v>0.25459999999999999</v>
+      </c>
+    </row>
+    <row r="107" spans="2:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B107" s="5">
+        <v>0.35780000000000001</v>
+      </c>
+      <c r="C107" s="6">
+        <v>0.60129999999999995</v>
+      </c>
+      <c r="D107" s="6">
+        <v>0.44690000000000002</v>
+      </c>
+    </row>
+    <row r="108" spans="2:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B108" s="5">
+        <v>0.25119999999999998</v>
+      </c>
+      <c r="C108" s="6">
+        <v>0.3805</v>
+      </c>
+      <c r="D108" s="6">
+        <v>0.28499999999999998</v>
+      </c>
+    </row>
+    <row r="109" spans="2:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B109" s="5">
+        <v>0.1056</v>
+      </c>
+      <c r="C109" s="6">
+        <v>0.16189999999999999</v>
+      </c>
+      <c r="D109" s="6">
+        <v>0.1109</v>
+      </c>
+    </row>
+    <row r="110" spans="2:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B110" s="5">
+        <v>0.16830000000000001</v>
+      </c>
+      <c r="C110" s="6">
+        <v>0.1918</v>
+      </c>
+      <c r="D110" s="6">
+        <v>0.21840000000000001</v>
+      </c>
+    </row>
+    <row r="111" spans="2:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B111" s="5">
+        <v>0.31040000000000001</v>
+      </c>
+      <c r="C111" s="6">
+        <v>0.5726</v>
+      </c>
+      <c r="D111" s="6">
+        <v>0.33800000000000002</v>
+      </c>
+    </row>
+    <row r="112" spans="2:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B112" s="5">
+        <v>0.246</v>
+      </c>
+      <c r="C112" s="6">
+        <v>0.35699999999999998</v>
+      </c>
+      <c r="D112" s="10">
+        <v>0.23499999999999999</v>
+      </c>
+    </row>
+    <row r="113" spans="2:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B113" s="5">
+        <v>0.24299999999999999</v>
+      </c>
+      <c r="C113" s="7">
+        <v>0.56100000000000005</v>
+      </c>
+      <c r="D113" s="11">
+        <v>0.312</v>
+      </c>
+    </row>
+    <row r="115" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B115">
+        <f>AVERAGE(B104:B113)</f>
+        <v>0.23924999999999996</v>
+      </c>
+      <c r="C115">
+        <f t="shared" ref="C115:D115" si="14">AVERAGE(C104:C113)</f>
+        <v>0.40257000000000004</v>
+      </c>
+      <c r="D115">
+        <f t="shared" si="14"/>
+        <v>0.27318999999999993</v>
+      </c>
+    </row>
+    <row r="116" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="117" spans="2:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B117" s="3">
+        <v>0.17580000000000001</v>
+      </c>
+      <c r="C117" s="4">
+        <v>0.31080000000000002</v>
+      </c>
+      <c r="D117" s="4">
+        <v>0.2006</v>
+      </c>
+    </row>
+    <row r="118" spans="2:4" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B118" s="5">
+        <v>0.18640000000000001</v>
+      </c>
+      <c r="C118" s="6">
+        <v>0.2626</v>
+      </c>
+      <c r="D118" s="6">
+        <v>0.13689999999999999</v>
+      </c>
+    </row>
+    <row r="119" spans="2:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B119" s="5">
+        <v>0.30320000000000003</v>
+      </c>
+      <c r="C119" s="6">
+        <v>0.40510000000000002</v>
+      </c>
+      <c r="D119" s="6">
+        <v>0.34200000000000003</v>
+      </c>
+    </row>
+    <row r="120" spans="2:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B120" s="5">
+        <v>0.22689999999999999</v>
+      </c>
+      <c r="C120" s="6">
+        <v>0.43509999999999999</v>
+      </c>
+      <c r="D120" s="6">
+        <v>0.28720000000000001</v>
+      </c>
+    </row>
+    <row r="121" spans="2:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B121" s="5">
+        <v>0.15590000000000001</v>
+      </c>
+      <c r="C121" s="6">
+        <v>9.98E-2</v>
+      </c>
+      <c r="D121" s="6">
+        <v>0.26989999999999997</v>
+      </c>
+    </row>
+    <row r="122" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B122" s="15">
+        <v>0.20660000000000001</v>
+      </c>
+      <c r="C122" s="16">
+        <v>0.2339</v>
+      </c>
+      <c r="D122" s="16">
+        <v>0.21920000000000001</v>
+      </c>
+    </row>
+    <row r="123" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B123" s="15">
+        <v>0.21679999999999999</v>
+      </c>
+      <c r="C123" s="16">
+        <v>0.3357</v>
+      </c>
+      <c r="D123" s="16">
+        <v>0.26340000000000002</v>
+      </c>
+    </row>
+    <row r="124" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B124" s="15">
+        <v>0.32450000000000001</v>
+      </c>
+      <c r="C124" s="16">
+        <v>0.24809999999999999</v>
+      </c>
+      <c r="D124" s="16">
+        <v>0.26169999999999999</v>
+      </c>
+    </row>
+    <row r="125" spans="2:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B125" s="5">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="C125" s="6">
+        <v>0.58399999999999996</v>
+      </c>
+      <c r="D125" s="6">
+        <v>0.374</v>
+      </c>
+    </row>
+    <row r="126" spans="2:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B126" s="5">
+        <v>0.24</v>
+      </c>
+      <c r="C126" s="7">
+        <v>0.34</v>
+      </c>
+      <c r="D126" s="11">
+        <v>0.27789999999999998</v>
+      </c>
+    </row>
+    <row r="128" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B128">
+        <f>AVERAGE(B117:B126)</f>
+        <v>0.23110999999999998</v>
+      </c>
+      <c r="C128">
+        <f t="shared" ref="C128:D128" si="15">AVERAGE(C117:C126)</f>
+        <v>0.32550999999999997</v>
+      </c>
+      <c r="D128">
+        <f t="shared" si="15"/>
+        <v>0.26328000000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
